--- a/mice_records/mouse_sequencing_culture.xlsx
+++ b/mice_records/mouse_sequencing_culture.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Mouse Number</t>
   </si>
@@ -22,34 +22,63 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Genotype</t>
+  </si>
+  <si>
     <t>Samples</t>
   </si>
   <si>
-    <t>AV454</t>
+    <t>AV789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fl/fl </t>
+  </si>
+  <si>
+    <t>caecal content</t>
+  </si>
+  <si>
+    <t>faecal proximal</t>
+  </si>
+  <si>
+    <t>faecal distal</t>
+  </si>
+  <si>
+    <t>colon tissue</t>
+  </si>
+  <si>
+    <t>AV567</t>
   </si>
   <si>
     <t>tg/tg</t>
   </si>
   <si>
-    <t>caecal content</t>
-  </si>
-  <si>
-    <t>faecal proximal</t>
-  </si>
-  <si>
-    <t>faecal distal</t>
-  </si>
-  <si>
-    <t>colon tissue</t>
+    <t>AV569</t>
+  </si>
+  <si>
+    <t>fl/fl</t>
+  </si>
+  <si>
+    <t>AV345</t>
+  </si>
+  <si>
+    <t>AVI213</t>
+  </si>
+  <si>
+    <t>tg/wt</t>
+  </si>
+  <si>
+    <t>AVI989</t>
+  </si>
+  <si>
+    <t>AV678</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -82,8 +111,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -359,67 +388,590 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="10.7109375"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="1" t="n"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="1" t="n"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1" t="n"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="1" t="n"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="1" t="n"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>43012</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/mice_records/mouse_sequencing_culture.xlsx
+++ b/mice_records/mouse_sequencing_culture.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Mouse Number</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>AV678</t>
+  </si>
+  <si>
+    <t>AVI999</t>
+  </si>
+  <si>
+    <t>av567</t>
+  </si>
+  <si>
+    <t>AV544</t>
+  </si>
+  <si>
+    <t>wt/wt</t>
+  </si>
+  <si>
+    <t>AV666</t>
+  </si>
+  <si>
+    <t>AV777</t>
+  </si>
+  <si>
+    <t>AV212</t>
   </si>
 </sst>
 </file>
@@ -388,7 +409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -974,6 +995,776 @@
         <v>9</v>
       </c>
     </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/mice_records/mouse_sequencing_culture.xlsx
+++ b/mice_records/mouse_sequencing_culture.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Mouse Number</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>AV212</t>
+  </si>
+  <si>
+    <t>AV657</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -1765,6 +1768,76 @@
         <v>9</v>
       </c>
     </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>43014</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
